--- a/medicine/Mort/Nécropole_royale_de_la_basilique_de_Saint-Denis/Nécropole_royale_de_la_basilique_de_Saint-Denis.xlsx
+++ b/medicine/Mort/Nécropole_royale_de_la_basilique_de_Saint-Denis/Nécropole_royale_de_la_basilique_de_Saint-Denis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole royale de la basilique de Saint-Denis abrite les tombes de nombreux souverains francs et français, depuis Dagobert Ier jusqu'à Louis XVIII. Cette nécropole se trouve dans la basilique Saint-Denis au nord de Paris dans le département français de Seine-Saint-Denis en région Île-de-France.
 Si quelques rois mérovingiens puis carolingiens y établirent leur dernier séjour, c'est avec les Robertiens et les Capétiens, que la nécropole royale installée dans l'église de Saint-Denis acquiert son statut définitif de lieu de rassemblement des sépultures royales.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Origine de la nécropole royale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès le Bas-Empire, un cimetière gallo-romain est attesté sur le site de Saint-Denis. Au IVe siècle, un mausolée fut élevé à l'emplacement du maître-autel actuel et fit déjà l'objet d'un culte. Puis, vers 475[1], sainte Geneviève acheta les terres alentour et fit construire une église. Cette église est devenue une nécropole royale dès les origines de la royauté française puisque la reine Arégonde, bru de Clovis Ier, y repose.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le Bas-Empire, un cimetière gallo-romain est attesté sur le site de Saint-Denis. Au IVe siècle, un mausolée fut élevé à l'emplacement du maître-autel actuel et fit déjà l'objet d'un culte. Puis, vers 475, sainte Geneviève acheta les terres alentour et fit construire une église. Cette église est devenue une nécropole royale dès les origines de la royauté française puisque la reine Arégonde, bru de Clovis Ier, y repose.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rois et reines de France inhumés à Saint-Denis
-Arégonde, reine des Francs (vers 515 – vers 575), quatrième épouse de Clotaire Ier.
+          <t>Rois et reines de France inhumés à Saint-Denis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arégonde, reine des Francs (vers 515 – vers 575), quatrième épouse de Clotaire Ier.
 Dagobert Ier, roi des Francs (vers 602/605 – 19 janvier 638/639), fils de Clotaire II et de Bertrude.
 Nantilde, reine des Francs (vers 610 – 642), seconde épouse de Dagobert Ier.
 Clovis II, roi des Francs de Neustrie et des Burgondes (635 – 31 octobre 657), fils de Dagobert Ier et de Nantilde.
@@ -613,9 +632,43 @@
 Louis XVI, roi de France et de Navarre puis roi des Français (23 août 1754 – 21 janvier 1793), fils de Louis de France et de Marie-Josèphe de Saxe. Inhumé au cimetière de la Madeleine à Paris, il fut ré-inhumé le 21 janvier 1815 dans la nécropole royale par ordre de Louis XVIII
 Marie-Antoinette d'Autriche, reine de France et de Navarre puis reine des Français (2 novembre 1755 – 16 octobre 1793), épouse de Louis XVI. Inhumée au cimetière de la Madeleine à Paris, elle fut ré-inhumée le 21 janvier 1815 dans la nécropole royale par ordre de Louis XVIII
 Louis XVII, dauphin de France puis prince royal de France puis prétendant aux trônes de France et de Navarre (27 mars 1785 – 8 juin 1795), fils de Louis XVI et de Marie-Antoinette d'Autriche. (Cœur uniquement, son corps se trouve dans une fosse commune du cimetière Sainte-Marguerite à Paris)
-Louis XVIII, roi de France et de Navarre (17 novembre 1755 – 16 septembre 1824), fils de Louis de France et de Marie-Josèphe de Saxe.
-Princes et princesses inhumés à Saint-Denis
-Charles Martel, duc d'Austrasie et des Francs, maire du palais (vers 690 – 22 octobre 741), fils de Pépin de Herstal et d'Alpaïde.
+Louis XVIII, roi de France et de Navarre (17 novembre 1755 – 16 septembre 1824), fils de Louis de France et de Marie-Josèphe de Saxe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées à Saint-Denis</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Princes et princesses inhumés à Saint-Denis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Charles Martel, duc d'Austrasie et des Francs, maire du palais (vers 690 – 22 octobre 741), fils de Pépin de Herstal et d'Alpaïde.
 Hugues le Grand, comte de Paris, marquis de Neustrie, duc des Francs, comte d'Auxerre (vers 898 – 16 juin 956), fils de Robert Ier de France et de Béatrice de Vermandois, père d'Hugues Capet.
 Philippe, roi des Francs conjointement avec son père (29 août 1116 – 13 octobre 1131), fils de Louis VI de France et d'Adèlaïde de Savoie.
 Philippe Hurepel, comte de Clermont, de Boulogne, d'Aumale et de Dammartin (juillet 1201 – 19 juillet 1234), fils de Philippe II de France et d'Agnès de Méranie.
@@ -696,9 +749,43 @@
 Charles-Ferdinand d'Artois, fils de France, duc de Berry (24 janvier 1778 – 14 février 1820), fils de Charles X de France et de Marie-Thérèse de Savoie.
 Louise Isabelle d'Artois, petite-fille de France (13 juillet 1817 – 14 juillet 1817), fille de Charles-Ferdinand d'Artois et de Caroline de Bourbon-Siciles.
 Louis d'Artois, prince du sang (mort-né le 13 septembre 1818), fils de Charles-Ferdinand d'Artois et de Caroline de Bourbon-Siciles.
-Mademoiselle d'Angoulême, petite-fille  de France (6 janvier 1783 – 22 juin 1783), fille de Charles X de France et de Marie-Thérèse de Savoie.
-Serviteurs de la monarchie française inhumés à Saint-Denis
-Suger de Saint-Denis, homme d'Église, homme d'État (1080/1081 – 13 janvier 1151)
+Mademoiselle d'Angoulême, petite-fille  de France (6 janvier 1783 – 22 juin 1783), fille de Charles X de France et de Marie-Thérèse de Savoie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées à Saint-Denis</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Serviteurs de la monarchie française inhumés à Saint-Denis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Suger de Saint-Denis, homme d'Église, homme d'État (1080/1081 – 13 janvier 1151)
 Alphonse de Brienne, grand chambrier de France de Louis IX de France (1227 – 25 août 1270)
 Pierre de Beaucaire, chambellan de Louis IX de France
 Bertrand du Guesclin, comte de Longueville, connétable de France et de Castille (vers 1320 – 13 juillet 1380)
@@ -716,36 +803,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>La profanation des tombes de la basilique durant la Révolution (1793)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour fêter la prise des Tuileries du 10 août 1792, lors de la séance du 31 juillet 1793, un conventionnel, Barère, demande que les mausolées soient tous détruits[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour fêter la prise des Tuileries du 10 août 1792, lors de la séance du 31 juillet 1793, un conventionnel, Barère, demande que les mausolées soient tous détruits.
 Dom Germain Poirier, ancien bénédictin de l'abbaye de Saint-Denis, est nommé commissaire de l'Institut, et à ce titre, chargé d'assister à l'exhumation. Le mois d'août doit être consacré à pratiquer l'exhumation des corps. Une décision non totalement appliquée puisqu'un conventionnel, Lequinio, dénonce son inapplication le 7 septembre 1793.
 Les corps sont jetés dans deux fosses communes du cimetière attenant à la basilique vers le nord puis recouverts en partie de chaux vive, mais Alexandre Lenoir réussit à sauver les statues et gisants les plus précieux. Il les envoie à Paris, au dépôt des Petits-Augustins.
-Dom Poirier a été le principal témoin oculaire de l'exhumation et de la profanation des tombeaux royaux (tout comme Alexandre Lenoir). Il a assisté à l'exhumation, une première fois en août 1793[2], notamment des tombeaux de :
+Dom Poirier a été le principal témoin oculaire de l'exhumation et de la profanation des tombeaux royaux (tout comme Alexandre Lenoir). Il a assisté à l'exhumation, une première fois en août 1793, notamment des tombeaux de :
 Philippe le Hardi et d'Isabelle d'Aragon ;
 Pépin le Bref ;
 Constance de Castille, femme de Louis VII ;
@@ -819,65 +908,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Restauration de la nécropole royale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1816, Louis XVIII demanda à Alexandre Lenoir de remettre les personnages exhumés dans la basilique réhabilitée en 1816. Le 19 janvier 1817, Louis XVIII fit ramener les restes de ses prédécesseurs, récupérés dans les fosses, dans la crypte de la basilique, où ils sont rassemblés (car la chaux a empêché leur identification) dans un ossuaire scellé par des plaques de marbre sur lesquelles sont inscrits les noms des monarques.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Tombeaux de la nécropole subsistants</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tombeaux royaux à effigies symboliques
-Dalle funéraire de Clovis Ier, roi des Francs
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tombeaux royaux à effigies symboliques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dalle funéraire de Clovis Ier, roi des Francs
 Dalle funéraire de Childebert Ier, fils de Clovis Ier, roi de Paris et Orléans
 Dalle funéraire de Clovis II du XIIe siècle roi de Neustrie et de Bourgogne
 Dalle funéraire de Frédégonde, reine de Neustrie
@@ -892,9 +988,43 @@
 Tombeau de Henri Ier (1031–1060)
 Tombeau de Louis VI le Gros (1108–1137)
 Tombeau de la seconde épouse de Louis VII, Constance de Castille (v. 1136-1160)
-Tombeau de Blanche de Castille (1188–1252), épouse de Louis VIII
-Tombeaux royaux à effigies réalistes
-À partir de Philippe III le Hardi, décédé en 1285, apparaît le souci de ressemblance dans la représentation des gisants.
+Tombeau de Blanche de Castille (1188–1252), épouse de Louis VIII</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tombeaux de la nécropole subsistants</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tombeaux royaux à effigies réalistes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>À partir de Philippe III le Hardi, décédé en 1285, apparaît le souci de ressemblance dans la représentation des gisants.
 Tombeaux de Philippe III le Hardi (1270–1285) et de son épouse Isabelle d'Aragon
 Tombeau de Philippe IV le Bel (1285–1314)
 Tombeaux de Louis X le Hutin (1314–1316) et de sa seconde épouse Clémence de Hongrie
@@ -904,18 +1034,86 @@
 Tombeaux de Philippe VI de Valois (1328–1350) et de sa seconde épouse Blanche de Navarre
 Tombeau de Jean II le Bon (1350–1364)
 Tombeaux de Charles V le Sage (1364–1380) et de son épouse Jeanne de Bourbon
-Tombeaux de Charles VI (1380–1422) et de son épouse Isabeau de Bavière
-Mausolées royaux de la Renaissance
-Les tombeaux deviennent très imposants et d'une décoration somptueuse. Les mausolées se présentent alors sur deux étages présentant deux visions opposées : à l'étage supérieur, le roi et la reine sont en costume d'apparat et agenouillés (orant), alors qu'à l'étage inférieur, les souverains sont représentés dans la rigidité cadavérique et sans vêtement (transi), ce qui en donne une vision extrêmement réaliste.
+Tombeaux de Charles VI (1380–1422) et de son épouse Isabeau de Bavière</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tombeaux de la nécropole subsistants</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mausolées royaux de la Renaissance</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les tombeaux deviennent très imposants et d'une décoration somptueuse. Les mausolées se présentent alors sur deux étages présentant deux visions opposées : à l'étage supérieur, le roi et la reine sont en costume d'apparat et agenouillés (orant), alors qu'à l'étage inférieur, les souverains sont représentés dans la rigidité cadavérique et sans vêtement (transi), ce qui en donne une vision extrêmement réaliste.
 Mausolée de Louis XII (1498–1515) et Anne de Bretagne, réalisé par les frères Juste.
 Mausolée de François Ier (1515–1547) et Claude de France, réalisé par Philibert Delorme et Pierre Bontemps. C'est une sorte d'arc de triomphe à l'antique, délicatement ciselé, dont le socle porte de remarquables bas-reliefs dont la bataille de Marignan.
 Mausolée de Henri II (1547–1559) et Catherine de Médicis, réalisé sous la direction du Primatice . Catherine de Médicis qui fut horrifiée en voyant sa représentation mortuaire telle que le voulait la tradition, commanda un second transi à Germain Pilon, où le sommeil se substitue à la mort.
-Deuxième tombeau d'Henri II et de Catherine de Médicis. Provenant de la Rotonde des Valois, ces gisants en marbre, sculptés par Germain Pilon, reproduisent les effigies funéraires en cire et en bois présentées sur les lits de parade à la mort des souverains. Ainsi Henri II et Catherine de Médicis sont les seuls souverains français à avoir deux tombeaux.
-Tombeaux de la crypte royale
-Dans la crypte royale de 1815 à 1830 ont continué d'être inhumés les souverains et princes du sang morts après la Révolution ainsi que ceux morts plus tôt et transférés depuis d'autres lieu sous la Restauration. Il s'agit de : 
+Deuxième tombeau d'Henri II et de Catherine de Médicis. Provenant de la Rotonde des Valois, ces gisants en marbre, sculptés par Germain Pilon, reproduisent les effigies funéraires en cire et en bois présentées sur les lits de parade à la mort des souverains. Ainsi Henri II et Catherine de Médicis sont les seuls souverains français à avoir deux tombeaux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tombeaux de la nécropole subsistants</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tombeaux de la crypte royale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la crypte royale de 1815 à 1830 ont continué d'être inhumés les souverains et princes du sang morts après la Révolution ainsi que ceux morts plus tôt et transférés depuis d'autres lieu sous la Restauration. Il s'agit de : 
 Louis VII le Jeune (1137–1180) qui était inhumé à l'abbaye cistercienne de Notre-Dame de Barbeau et qui fut transféré le 30 juin 1817 à la basilique de Saint-Denis à la demande de Louis XVIII
 Louis XVIII (1814–1824) inhumé dans la basilique à sa mort en 1824
-Louise de Lorraine-Vaudémont, reine de France (1553–1601), épouse d'Henri III, réinhumée le 16 janvier 1817 sur ordre de Louis XVIII[3]
+Louise de Lorraine-Vaudémont, reine de France (1553–1601), épouse d'Henri III, réinhumée le 16 janvier 1817 sur ordre de Louis XVIII
 Louis XVI (1774–1792) et de son épouse Marie-Antoinette d'Autriche inhumés dans la basilique le 21 janvier 1815 après leur exhumation du cimetière de la Madeleine
 Adélaïde de France (1732-1800) et Victoire de France (1733-1799), toutes deux filles de Louis XV, d'abord inhumées en exil à Trieste
 Louis V Joseph de Bourbon-Condé (1736-1818) petit-fils de Louis XIV, inhumé là à sa mort en 1818
@@ -929,21 +1127,90 @@
 			Tombe de Louis XVIII (basilique Saint-Denis).
 			Cénotaphe de Louis XIV (basilique Saint-Denis).
 			Cœur de Louis XVII (basilique Saint-Denis).
-Tombeaux de souverains transférés à Saint-Denis
-Les gisants de plusieurs souverains non inhumés à Saint-Denis y furent transférés :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tombeaux de la nécropole subsistants</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tombeaux de souverains transférés à Saint-Denis</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les gisants de plusieurs souverains non inhumés à Saint-Denis y furent transférés :
 gisant de Clovis Ier ;
 gisant de Childebert Ier en provenance de l'abbaye de Saint-Germain-des-Prés où il fut inhumé en 558 ;
 dalle funéraire de Frédégonde en provenance de l'abbaye de Saint-Germain-des-Prés où elle fut inhumée en 597 ;
-gisant de Léon VI, roi d'Arménie de la famille française de Lusignan, inhumé au couvent des Célestins à Paris.
-Tombeaux de princes et princesses de France
-Tombeaux de Louis d'Orléans le second fils de Charles V, de son épouse Valentine de Milan, et de leurs deux fils, Charles d'Orléans père de Louis XII et Philippe d'Orléans
+gisant de Léon VI, roi d'Arménie de la famille française de Lusignan, inhumé au couvent des Célestins à Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tombeaux de la nécropole subsistants</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tombeaux de princes et princesses de France</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tombeaux de Louis d'Orléans le second fils de Charles V, de son épouse Valentine de Milan, et de leurs deux fils, Charles d'Orléans père de Louis XII et Philippe d'Orléans
 Tombeau de Charles d'Etampes
 Tombeau de Marguerite, fille de Philippe V
 Tombeau de Charles Martel, fondateur de la dynastie carolingienne
 Tombeau de Léon de Lusignan, dernier roi d'Arménie, mort en exil à Paris
 Tombeaux de Charles de Valois, frère de Philippe VI, et de son épouse Marie d'Espagne
 Tombeau de Blanche de Bretagne, épouse de Philippe d'Artois
-Tombeau de Robert d'Artois, inhumé dans l'église des Cordeliers de Paris[4], tombeau transféré à Saint-Denis au XIXe siècle
+Tombeau de Robert d'Artois, inhumé dans l'église des Cordeliers de Paris, tombeau transféré à Saint-Denis au XIXe siècle
 Tombeau de Blanche de France, duchesse d'Orléans, morte en 1393, une fille de Charles IV et de Jeanne d'Évreux
 Tombeau de Louis de France, aîné des fils de Saint-Louis
 Tombeau de Philippe de France (mort en 1285)
@@ -954,45 +1221,119 @@
 Tombeau de Jeanne de France, fille de Philippe VI
 Tombeaux de Louis de France fils de Philippe III, et de son épouse Marie de Brabant
 Tombeau de Jeanne de France, fille de Louis
-Tombeau de Philippe, fils aîné de Louis VI
-Tombeaux de serviteurs de la monarchie française
-Tombeau de Bertrand du Guesclin
+Tombeau de Philippe, fils aîné de Louis VI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tombeaux de la nécropole subsistants</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tombeaux de serviteurs de la monarchie française</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tombeau de Bertrand du Guesclin
 Tombeau de Louis de Sancerre, connétable de France sous Charles VI
 Tombeau de Guillaume de Chastel, chambellan de Charles VII</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Tombeaux de la nécropole détruits</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tombeaux détruits lors de la guerre de Cent Ans
-Philippe Auguste (1180–1223)
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tombeaux détruits lors de la guerre de Cent Ans</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Philippe Auguste (1180–1223)
 Louis VIII le Lion (1223–1226)
-Saint Louis (1226–1270) et son épouse Marguerite de Provence.
-Tombeaux principaux détruits lors de la Révolution française
+Saint Louis (1226–1270) et son épouse Marguerite de Provence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nécropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_royale_de_la_basilique_de_Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tombeaux de la nécropole détruits</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tombeaux principaux détruits lors de la Révolution française</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Charles II le Chauve (843–877)
 Eudes (888–898)
 Hugues Capet (987–996)
